--- a/data/trans_orig/P17G-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A861A12-D867-4D1A-ACE2-CA1B76588B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8324BFD6-15A6-4EB5-8B81-D5BF43108839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D58EA8B-4558-47B2-9B62-8F74E8166E1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7CA0C5B-6BC8-4F48-877C-C60C6BE83EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="739">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,8%)</t>
   </si>
@@ -95,2155 +95,2167 @@
     <t>4,81%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>Médico privado/particular</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,11%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
     <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,33%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,6%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFD6496-700D-429B-93C1-E49E8D10B7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1E3782-D995-442C-AA76-74EC31CA387D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3467,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3476,13 +3488,13 @@
         <v>2859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,10 +3512,10 @@
         <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3515,10 +3527,10 @@
         <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3527,13 +3539,13 @@
         <v>10553</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3563,13 +3575,13 @@
         <v>7047</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3578,13 +3590,13 @@
         <v>8903</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3611,13 @@
         <v>83621</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -3614,13 +3626,13 @@
         <v>173498</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>245</v>
@@ -3629,13 +3641,13 @@
         <v>257119</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3703,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3709,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3739,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3766,13 @@
         <v>4606</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3769,13 +3781,13 @@
         <v>1023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3784,13 +3796,13 @@
         <v>5630</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3817,13 @@
         <v>6639</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3820,13 +3832,13 @@
         <v>8098</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3835,13 +3847,13 @@
         <v>14737</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3868,13 @@
         <v>1001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3871,13 +3883,13 @@
         <v>2158</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3886,13 +3898,13 @@
         <v>3158</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3919,13 @@
         <v>67424</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -3922,13 +3934,13 @@
         <v>136185</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -3937,13 +3949,13 @@
         <v>203610</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +4011,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4017,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4032,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4047,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4161,7 @@
         <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4176,13 @@
         <v>6282</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4179,13 +4191,13 @@
         <v>4317</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4194,13 +4206,13 @@
         <v>10599</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4227,13 @@
         <v>115042</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>139</v>
@@ -4230,13 +4242,13 @@
         <v>139194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M32" s="7">
         <v>257</v>
@@ -4245,13 +4257,13 @@
         <v>254236</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4319,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4325,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4340,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4355,7 +4367,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4391,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4406,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4433,13 @@
         <v>4161</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -4442,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -4451,13 +4463,13 @@
         <v>6377</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>5473</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4487,13 +4499,13 @@
         <v>6235</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -4502,13 +4514,13 @@
         <v>11708</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>217565</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H38" s="7">
         <v>314</v>
@@ -4538,13 +4550,13 @@
         <v>321048</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M38" s="7">
         <v>543</v>
@@ -4553,13 +4565,13 @@
         <v>538613</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4648,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4663,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,10 +4693,10 @@
         <v>73</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4693,13 +4705,13 @@
         <v>9943</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -4708,13 +4720,13 @@
         <v>25239</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4741,13 @@
         <v>29317</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H42" s="7">
         <v>27</v>
@@ -4744,10 +4756,10 @@
         <v>29390</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>229</v>
@@ -4762,10 +4774,10 @@
         <v>230</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4792,13 @@
         <v>17157</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H43" s="7">
         <v>24</v>
@@ -4795,13 +4807,13 @@
         <v>25756</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M43" s="7">
         <v>42</v>
@@ -4810,13 +4822,13 @@
         <v>42913</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4843,13 @@
         <v>594040</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H44" s="7">
         <v>961</v>
@@ -4846,13 +4858,13 @@
         <v>983282</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M44" s="7">
         <v>1558</v>
@@ -4861,13 +4873,13 @@
         <v>1577321</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4935,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18775E4-0E07-484B-9D56-9D9318438660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B5CA3F-E37A-409D-9D1A-CE902B29CE4B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4962,7 +4974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5090,7 +5102,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5105,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5156,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,7 +5183,7 @@
         <v>1062</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -5201,13 +5213,13 @@
         <v>4079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,10 +5234,10 @@
         <v>5054</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>259</v>
@@ -5237,13 +5249,13 @@
         <v>963</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5255,7 +5267,7 @@
         <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>262</v>
@@ -5279,7 +5291,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>91</v>
@@ -5288,13 +5300,13 @@
         <v>94250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -5303,13 +5315,13 @@
         <v>145178</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5398,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5413,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5440,13 @@
         <v>953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5449,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5458,13 +5470,13 @@
         <v>953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5491,13 @@
         <v>3668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5494,13 +5506,13 @@
         <v>2932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -5509,13 +5521,13 @@
         <v>6600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5542,13 @@
         <v>1791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5551,7 +5563,7 @@
         <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5560,13 +5572,13 @@
         <v>6648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5593,13 @@
         <v>93853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -5596,13 +5608,13 @@
         <v>150601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -5611,13 +5623,13 @@
         <v>244454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5697,13 @@
         <v>916</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5715,13 +5727,13 @@
         <v>916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5748,13 @@
         <v>2737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5751,13 +5763,13 @@
         <v>1774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5766,13 +5778,13 @@
         <v>4511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5799,13 @@
         <v>2852</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5805,10 +5817,10 @@
         <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -5817,13 +5829,13 @@
         <v>5740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5850,13 @@
         <v>3745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5853,13 +5865,13 @@
         <v>8333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5868,13 +5880,13 @@
         <v>12078</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5916,13 @@
         <v>177772</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>275</v>
@@ -5919,13 +5931,13 @@
         <v>293108</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +5993,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5999,7 +6011,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6014,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6044,13 +6056,13 @@
         <v>3503</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6065,7 +6077,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6074,13 +6086,13 @@
         <v>3503</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6107,13 @@
         <v>6311</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6110,13 +6122,13 @@
         <v>1046</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6125,13 +6137,13 @@
         <v>7357</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6158,13 @@
         <v>2185</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6161,13 +6173,13 @@
         <v>2081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6182,7 +6194,7 @@
         <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6209,13 @@
         <v>99559</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -6212,13 +6224,13 @@
         <v>188316</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>253</v>
@@ -6227,13 +6239,13 @@
         <v>287875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6301,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6307,7 +6319,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6322,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6358,7 +6370,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6373,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6382,13 +6394,13 @@
         <v>956</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6415,13 @@
         <v>2171</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6424,7 +6436,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -6433,13 +6445,13 @@
         <v>2171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>353</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6466,13 @@
         <v>7547</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -6469,13 +6481,13 @@
         <v>4082</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>357</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6484,10 +6496,10 @@
         <v>11629</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>359</v>
@@ -6535,13 +6547,13 @@
         <v>272759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,7 +6609,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6615,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6645,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6696,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6723,13 @@
         <v>3072</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -6726,13 +6738,13 @@
         <v>9309</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="M36" s="7">
         <v>12</v>
@@ -6741,13 +6753,13 @@
         <v>12381</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>373</v>
+        <v>172</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,10 +6774,10 @@
         <v>4167</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>377</v>
@@ -6780,10 +6792,10 @@
         <v>378</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -6792,13 +6804,13 @@
         <v>8281</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,7 +6935,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6938,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -6947,13 +6959,13 @@
         <v>916</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,7 +6983,7 @@
         <v>393</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>370</v>
+        <v>193</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>394</v>
@@ -6989,7 +7001,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -7004,7 +7016,7 @@
         <v>395</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7031,13 @@
         <v>19136</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="H42" s="7">
         <v>19</v>
@@ -7034,13 +7046,13 @@
         <v>19192</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>398</v>
+        <v>91</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="M42" s="7">
         <v>37</v>
@@ -7049,13 +7061,13 @@
         <v>38328</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>399</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,10 +7082,10 @@
         <v>24488</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>400</v>
@@ -7088,10 +7100,10 @@
         <v>14</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M43" s="7">
         <v>42</v>
@@ -7100,13 +7112,13 @@
         <v>48918</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>402</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7133,13 @@
         <v>717114</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H44" s="7">
         <v>1016</v>
@@ -7136,13 +7148,13 @@
         <v>1090170</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="M44" s="7">
         <v>1675</v>
@@ -7151,13 +7163,13 @@
         <v>1807284</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,7 +7225,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +7247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE1C3B0-4FDD-43A6-8785-C412A900CEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D285CD-ADD1-42E7-9BAF-9ADDDB6F0211}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7252,7 +7264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7365,7 +7377,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7395,7 +7407,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7422,13 @@
         <v>955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7446,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,7 +7479,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7476,13 +7488,13 @@
         <v>1067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7497,7 +7509,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,10 +7524,10 @@
         <v>4135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>417</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>419</v>
@@ -7527,7 +7539,7 @@
         <v>1871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -7545,7 +7557,7 @@
         <v>421</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>422</v>
@@ -7566,10 +7578,10 @@
         <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -7578,13 +7590,13 @@
         <v>90399</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -7593,13 +7605,13 @@
         <v>152391</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7718,13 +7730,13 @@
         <v>2958</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7733,13 +7745,13 @@
         <v>1064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -7748,10 +7760,10 @@
         <v>4022</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>435</v>
@@ -7799,10 +7811,10 @@
         <v>8599</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>442</v>
@@ -7823,10 +7835,10 @@
         <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7835,13 +7847,13 @@
         <v>10038</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -7850,13 +7862,13 @@
         <v>17463</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7883,13 @@
         <v>74672</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -7886,13 +7898,13 @@
         <v>140673</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -7901,13 +7913,13 @@
         <v>215345</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,7 +7993,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7996,7 +8008,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -8005,13 +8017,13 @@
         <v>983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,7 +8044,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -8041,13 +8053,13 @@
         <v>2705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -8056,13 +8068,13 @@
         <v>4681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8089,13 @@
         <v>4605</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8092,13 +8104,13 @@
         <v>4312</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -8107,13 +8119,13 @@
         <v>8917</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8140,13 @@
         <v>4372</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -8143,13 +8155,13 @@
         <v>7420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -8158,13 +8170,13 @@
         <v>11792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,10 +8194,10 @@
         <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -8194,13 +8206,13 @@
         <v>155708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>280</v>
@@ -8209,13 +8221,13 @@
         <v>290739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,7 +8283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8304,7 +8316,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8319,7 +8331,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8346,13 @@
         <v>3853</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8349,13 +8361,13 @@
         <v>1020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -8364,13 +8376,13 @@
         <v>4872</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,13 +8397,13 @@
         <v>4494</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>496</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -8400,13 +8412,13 @@
         <v>5212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>194</v>
+        <v>491</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8415,13 +8427,13 @@
         <v>9705</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8448,13 @@
         <v>11668</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -8451,13 +8463,13 @@
         <v>6453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -8466,13 +8478,13 @@
         <v>18121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,13 +8499,13 @@
         <v>142078</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
@@ -8502,13 +8514,13 @@
         <v>165892</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -8517,13 +8529,13 @@
         <v>307970</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,7 +8591,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8597,7 +8609,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8612,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8627,7 +8639,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,7 +8660,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8663,7 +8675,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -8672,13 +8684,13 @@
         <v>1135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8699,7 +8711,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -8708,13 +8720,13 @@
         <v>3378</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>310</v>
+        <v>511</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -8726,10 +8738,10 @@
         <v>15</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>253</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,13 +8756,13 @@
         <v>9388</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>474</v>
+        <v>96</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -8759,13 +8771,13 @@
         <v>8713</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>519</v>
+        <v>251</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -8774,13 +8786,13 @@
         <v>18101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,13 +8807,13 @@
         <v>131502</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H32" s="7">
         <v>156</v>
@@ -8810,13 +8822,13 @@
         <v>176863</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -8825,13 +8837,13 @@
         <v>308365</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,7 +8899,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8905,7 +8917,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8935,7 +8947,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>337</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,7 +8968,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8986,7 +8998,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>337</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,13 +9013,13 @@
         <v>898</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -9016,13 +9028,13 @@
         <v>1784</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -9031,13 +9043,13 @@
         <v>2682</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>533</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9052,13 +9064,13 @@
         <v>8348</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>534</v>
+        <v>326</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>418</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -9067,13 +9079,13 @@
         <v>11720</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>68</v>
+        <v>533</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>354</v>
+        <v>534</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -9082,13 +9094,13 @@
         <v>20068</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9115,13 @@
         <v>225139</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H38" s="7">
         <v>289</v>
@@ -9118,13 +9130,13 @@
         <v>342753</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M38" s="7">
         <v>528</v>
@@ -9133,13 +9145,13 @@
         <v>567892</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>548</v>
+        <v>158</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9228,7 +9240,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -9237,13 +9249,13 @@
         <v>983</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,13 +9270,13 @@
         <v>10877</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>496</v>
+        <v>126</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>126</v>
+        <v>548</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -9273,13 +9285,13 @@
         <v>4789</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -9291,10 +9303,10 @@
         <v>31</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>552</v>
+        <v>197</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9321,13 @@
         <v>16201</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>553</v>
+        <v>312</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>554</v>
+        <v>335</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>253</v>
+        <v>499</v>
       </c>
       <c r="H42" s="7">
         <v>17</v>
@@ -9324,13 +9336,13 @@
         <v>19174</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="M42" s="7">
         <v>31</v>
@@ -9339,13 +9351,13 @@
         <v>35375</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9372,13 @@
         <v>45338</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>555</v>
       </c>
       <c r="H43" s="7">
         <v>42</v>
@@ -9375,13 +9387,13 @@
         <v>46214</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M43" s="7">
         <v>83</v>
@@ -9390,13 +9402,13 @@
         <v>91552</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>237</v>
+        <v>559</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9423,13 @@
         <v>770415</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H44" s="7">
         <v>993</v>
@@ -9426,13 +9438,13 @@
         <v>1072288</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M44" s="7">
         <v>1730</v>
@@ -9441,13 +9453,13 @@
         <v>1842702</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,7 +9515,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -9525,7 +9537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EDD606-DE22-4A43-830E-B1E12A713573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B1FDEA-1527-4476-B778-BABEB8702D9E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9542,7 +9554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9655,7 +9667,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9670,7 +9682,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9685,7 +9697,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,7 +9718,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9721,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9736,7 +9748,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9769,7 +9781,7 @@
         <v>575</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>576</v>
@@ -9823,7 +9835,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -9963,7 +9975,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>593</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9978,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9993,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,13 +10020,13 @@
         <v>1262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -10023,13 +10035,13 @@
         <v>1349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -10038,13 +10050,13 @@
         <v>2611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>598</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,13 +10071,13 @@
         <v>5403</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -10074,13 +10086,13 @@
         <v>10230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -10089,13 +10101,13 @@
         <v>15633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>604</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10110,13 +10122,13 @@
         <v>3028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -10125,13 +10137,13 @@
         <v>4900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>604</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>608</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -10140,13 +10152,13 @@
         <v>7928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>461</v>
+        <v>607</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10161,13 +10173,13 @@
         <v>68232</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -10176,13 +10188,13 @@
         <v>103323</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -10191,13 +10203,13 @@
         <v>171556</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10271,7 +10283,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10286,7 +10298,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>620</v>
+        <v>431</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -10301,7 +10313,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10316,13 +10328,13 @@
         <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -10331,13 +10343,13 @@
         <v>1315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>620</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -10346,13 +10358,13 @@
         <v>1475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>623</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,13 +10379,13 @@
         <v>9855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -10382,13 +10394,13 @@
         <v>7592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>628</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -10397,13 +10409,13 @@
         <v>17447</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>627</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,13 +10430,13 @@
         <v>319</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -10433,13 +10445,13 @@
         <v>7020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -10448,13 +10460,13 @@
         <v>7340</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>635</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>636</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>637</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10469,13 +10481,13 @@
         <v>73877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -10484,13 +10496,13 @@
         <v>110284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M20" s="7">
         <v>227</v>
@@ -10499,13 +10511,13 @@
         <v>184161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,7 +10573,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -10579,7 +10591,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>647</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10588,13 +10600,13 @@
         <v>760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>648</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -10609,7 +10621,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>23</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10624,13 +10636,13 @@
         <v>2311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>649</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -10639,13 +10651,13 @@
         <v>2961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -10654,13 +10666,13 @@
         <v>5273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>533</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10675,13 +10687,13 @@
         <v>9705</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>644</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -10690,13 +10702,13 @@
         <v>10209</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -10705,13 +10717,13 @@
         <v>19914</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10726,13 +10738,13 @@
         <v>5324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -10741,13 +10753,13 @@
         <v>10229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>661</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>654</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -10756,13 +10768,13 @@
         <v>15553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>655</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10777,13 +10789,13 @@
         <v>117086</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>665</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -10792,13 +10804,13 @@
         <v>158873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -10807,13 +10819,13 @@
         <v>275959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>662</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10869,7 +10881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10887,7 +10899,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10896,13 +10908,13 @@
         <v>666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -10911,13 +10923,13 @@
         <v>666</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10932,13 +10944,13 @@
         <v>2154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>674</v>
+        <v>18</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -10953,7 +10965,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -10962,13 +10974,13 @@
         <v>3349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>671</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>57</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10983,13 +10995,13 @@
         <v>2015</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -10998,13 +11010,13 @@
         <v>9728</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>357</v>
+        <v>674</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>657</v>
+        <v>421</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -11013,13 +11025,13 @@
         <v>11743</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>676</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>677</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>678</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11034,13 +11046,13 @@
         <v>6552</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -11049,13 +11061,13 @@
         <v>3904</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -11064,13 +11076,13 @@
         <v>10456</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>338</v>
+        <v>681</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11085,13 +11097,13 @@
         <v>135830</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>684</v>
+        <v>544</v>
       </c>
       <c r="H32" s="7">
         <v>226</v>
@@ -11100,13 +11112,13 @@
         <v>136121</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M32" s="7">
         <v>369</v>
@@ -11115,13 +11127,13 @@
         <v>271951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11177,7 +11189,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11210,7 +11222,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11240,13 +11252,13 @@
         <v>1456</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>691</v>
+        <v>282</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -11261,7 +11273,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -11270,13 +11282,13 @@
         <v>2110</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>693</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11291,13 +11303,13 @@
         <v>3428</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -11306,10 +11318,10 @@
         <v>6449</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>63</v>
+        <v>695</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>632</v>
+        <v>60</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>696</v>
@@ -11324,10 +11336,10 @@
         <v>697</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>23</v>
+        <v>669</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>66</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11342,10 +11354,10 @@
         <v>10589</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>699</v>
+        <v>401</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>700</v>
@@ -11357,13 +11369,13 @@
         <v>10679</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -11372,13 +11384,13 @@
         <v>21268</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11411,10 +11423,10 @@
         <v>709</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M38" s="7">
         <v>746</v>
@@ -11423,13 +11435,13 @@
         <v>445792</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11503,7 +11515,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>714</v>
+        <v>392</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -11518,7 +11530,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>463</v>
+        <v>95</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -11533,7 +11545,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11548,13 +11560,13 @@
         <v>7343</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>481</v>
+        <v>63</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -11563,13 +11575,13 @@
         <v>7474</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>163</v>
+        <v>718</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7">
         <v>18</v>
@@ -11578,13 +11590,13 @@
         <v>14817</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>718</v>
+        <v>464</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>674</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11614,13 +11626,13 @@
         <v>49277</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>722</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M42" s="7">
         <v>95</v>
@@ -11629,13 +11641,13 @@
         <v>83022</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11668,10 +11680,10 @@
         <v>729</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>498</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>723</v>
+        <v>80</v>
       </c>
       <c r="M43" s="7">
         <v>84</v>
@@ -11680,13 +11692,13 @@
         <v>64498</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>466</v>
+        <v>730</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11701,13 +11713,13 @@
         <v>600470</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>119</v>
+        <v>734</v>
       </c>
       <c r="H44" s="7">
         <v>1219</v>
@@ -11716,13 +11728,13 @@
         <v>827745</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="M44" s="7">
         <v>1864</v>
@@ -11731,13 +11743,13 @@
         <v>1428214</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11793,7 +11805,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
